--- a/storage/templates/billing_template.xlsx
+++ b/storage/templates/billing_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\oxytoxin\Sites\sksumpc\storage\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA53A030-1C75-4287-94E6-D1AC1537F600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5E8B54-7793-46E7-9448-FE0C76DF305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SKSU-MPC Regular Loan Billing Statement</t>
   </si>
@@ -42,7 +42,10 @@
     <t>AMOUNT DUE</t>
   </si>
   <si>
-    <t>AMOUNT PAID</t>
+    <t>LOAN BALANCE</t>
+  </si>
+  <si>
+    <t>ACCOUNT NO</t>
   </si>
 </sst>
 </file>
@@ -50,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -118,7 +121,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -137,18 +140,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -430,30 +433,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="13" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -464,8 +467,9 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -473,18 +477,20 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -492,17 +498,18 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -510,17 +517,18 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -528,27 +536,30 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/templates/billing_template.xlsx
+++ b/storage/templates/billing_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oxytoxin\Sites\sksumpc\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5E8B54-7793-46E7-9448-FE0C76DF305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8236895E-A3DF-4B35-BFDE-E7D864068CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SKSU-MPC Regular Loan Billing Statement</t>
   </si>
@@ -42,10 +42,7 @@
     <t>AMOUNT DUE</t>
   </si>
   <si>
-    <t>LOAN BALANCE</t>
-  </si>
-  <si>
-    <t>ACCOUNT NO</t>
+    <t>AMOUNT PAID</t>
   </si>
 </sst>
 </file>
@@ -433,22 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -456,7 +453,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -467,9 +464,8 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -477,20 +473,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -498,18 +492,17 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -517,18 +510,17 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -536,30 +528,27 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
